--- a/data/air_info/北京-长春.xlsx
+++ b/data/air_info/北京-长春.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4478B1-3F8C-4512-A2B3-4AA346025C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A724F5A-71E0-46CE-B31F-2B879498BC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,17 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
-  <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>国航经济舱Boeing 737CA 8665</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A320CZ 6180</t>
   </si>
   <si>
@@ -51,30 +45,15 @@
     <t>南航经济舱Airbus A321CZ 6146</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
-    <t>南航经济舱Airbus A320CZ 6150</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1649</t>
   </si>
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A320CA 1629</t>
   </si>
   <si>
     <t>南航经济舱Airbus A320CZ 6194</t>
   </si>
   <si>
-    <t>国航经济舱Airbus A330CA 1647</t>
-  </si>
-  <si>
-    <t>行程时间：1 小时 40 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1653</t>
   </si>
   <si>
@@ -109,6 +88,25 @@
   </si>
   <si>
     <t>机票价格</t>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 40 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -474,31 +472,31 @@
     <col min="3" max="3" width="39.08984375" style="1" customWidth="1"/>
     <col min="4" max="5" width="39.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,23 +504,22 @@
         <v>0.31597222222222221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>0.40277777777777779</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(2000,2500)</f>
-        <v>2446</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,23 +527,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>0.4375</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G12" ca="1" si="0">RANDBETWEEN(2000,2500)</f>
-        <v>2340</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -554,23 +550,22 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>0.4826388888888889</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2358</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -578,191 +573,137 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>0.53125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2140</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.53125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2463</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>0.62152777777777779</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2400</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0.625</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2091</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.90972222222222221</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2477</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.80555555555555558</v>
+        <v>0.84375</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>0.88194444444444442</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.84375</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.93055555555555558</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2263</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
